--- a/out_booth_5/suspect_summary.xlsx
+++ b/out_booth_5/suspect_summary.xlsx
@@ -1384,18 +1384,10 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Serial number 13 is the only voter listed under house number 1/14 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1462,12 +1454,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Serial number 14 is the only voter listed under house number 1/3 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 14 does not have any valid parent or spouse relationship with other voters in house number 1/3 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -1598,10 +1590,18 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Serial number 16 does not have any valid parent or spouse relationship with other voters in house number 1-3 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Serial number 19 is the only voter listed under house number 1/4 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 19 does not have any valid parent or spouse relationship with other voters in house number 1/4 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -2306,18 +2306,10 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Serial number 26 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2446,16 +2438,16 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Serial number 28 does not have any valid parent or spouse relationship with other voters in house number 1-15 on street '1-Nallagoundenpalayam Ward No.1'. | Serial number 28 has invalid age value 0.</t>
+          <t>Serial number 28 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -2594,18 +2586,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Serial number 30 does not have any valid parent or spouse relationship with other voters in house number 1-15 on street '1-Nallagoundenpalayam Ward No.1'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2812,12 +2796,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Serial number 33 is the only voter listed under house number 1-19 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 33 does not have any valid parent or spouse relationship with other voters in house number 1-19 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -3170,18 +3154,10 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Serial number 38 is the only voter listed under house number 1/24 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3318,10 +3294,18 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Serial number 40 does not have any valid parent or spouse relationship with other voters in house number 1-27 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3384,10 +3368,18 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Serial number 41 does not have any valid parent or spouse relationship with other voters in house number 1-27 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3742,12 +3734,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Serial number 46 is the only voter listed under house number 1-30 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 46 does not have any valid parent or spouse relationship with other voters in house number 1-30 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -3816,12 +3808,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Serial number 47 is the only voter listed under house number 1/30 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 47 does not have any valid parent or spouse relationship with other voters in house number 1/30 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -4656,12 +4648,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Serial number 59 is the only voter listed under house number 1/39 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 59 does not have any valid parent or spouse relationship with other voters in house number 1/39 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -4726,18 +4718,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Serial number 60 is the only voter listed under house number 1-39 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5990,12 +5974,12 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Serial number 78 is the only voter listed under house number 1-4 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 78 does not have any valid parent or spouse relationship with other voters in house number 1-4 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -6192,18 +6176,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Serial number 81 is the only voter listed under house number 1/48 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6266,18 +6242,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Serial number 82 does not have any valid parent or spouse relationship with other voters in house number 1-49 on street '1-Nallagoundenpalayam Ward No.1'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6612,10 +6580,18 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Serial number 87 does not have any valid parent or spouse relationship with other voters in house number 1/54 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6678,16 +6654,16 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Serial number 88 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 88 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 88 does not have any valid parent or spouse relationship with other voters in house number 1/54 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -7122,10 +7098,18 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Serial number 94 does not have any valid parent or spouse relationship with other voters in house number 1-60A on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7188,16 +7172,16 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Serial number 95 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 95 does not have any valid parent or spouse relationship with other voters in house number 1-60a on street '1-Nallagoundenpalayam Ward No.1'. | Serial number 95 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -7616,18 +7600,10 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>Serial number 101 is the only voter listed under house number 1-68 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7690,18 +7666,10 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>Serial number 102 is the only voter listed under house number 1-48 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7764,18 +7732,10 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>Serial number 103 is the only voter listed under house number 1/68 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8508,12 +8468,12 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Serial number 113 is the only voter listed under house number 1-92 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 113 does not have any valid parent or spouse relationship with other voters in house number 1-92 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -8578,18 +8538,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>Serial number 114 is the only voter listed under house number 1/92 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8948,18 +8900,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Serial number 119 is the only voter listed under house number 1/95 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -9026,12 +8970,12 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Serial number 120 is the only voter listed under house number 1-95 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 120 does not have any valid parent or spouse relationship with other voters in house number 1-95 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -9236,18 +9180,10 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>Serial number 123 is the only voter listed under house number 1/96 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9536,12 +9472,12 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Serial number 127 is the only voter listed under house number 1-97 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 127 does not have any valid parent or spouse relationship with other voters in house number 1-97 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -10816,18 +10752,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>Serial number 145 is the only voter listed under house number 1/118 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10956,10 +10884,18 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Serial number 147 does not have any valid parent or spouse relationship with other voters in house number 1-119 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11022,10 +10958,18 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Serial number 148 does not have any valid parent or spouse relationship with other voters in house number 1-119 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -11862,18 +11806,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>1</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>Serial number 160 is the only voter listed under house number 1/124 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -12892,16 +12828,16 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Serial number 175 does not have any valid parent or spouse relationship with other voters in house number 1-130A on street '1-Nallagoundenpalayam Ward No.1'. | Serial number 175 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 175 does not have any valid parent or spouse relationship with other voters in house number 1-130A on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -13538,12 +13474,12 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>Serial number 184 is the only voter listed under house number 1-132 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 184 does not have any valid parent or spouse relationship with other voters in house number 1-132 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -13612,12 +13548,12 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>Serial number 185 is the only voter listed under house number 1/132 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 185 does not have any valid parent or spouse relationship with other voters in house number 1/132 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -14254,12 +14190,12 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Serial number 194 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 194 does not have any valid parent or spouse relationship with other voters in house number 1/138 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -14324,10 +14260,18 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Serial number 195 does not have any valid parent or spouse relationship with other voters in house number 1/138 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -14394,12 +14338,12 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Serial number 196 is the only voter listed under house number 1-138 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 196 does not have any valid parent or spouse relationship with other voters in house number 1-138 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -14834,18 +14778,10 @@
         </is>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>Serial number 202 is the only voter listed under house number 1-141 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -15666,16 +15602,16 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>House number 1-1464 on street '1-Nallagoundenpalayam Ward No.1' contains 24 registered voters including serial number 214, which exceeds the household size threshold.</t>
+          <t>Serial number 214 does not have any valid parent or spouse relationship with other voters in house number 1-1464 on street '1-Nallagoundenpalayam Ward No.1'. | House number 1-1464 on street '1-Nallagoundenpalayam Ward No.1' contains 24 registered voters including serial number 214, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -15740,10 +15676,18 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 215, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15954,10 +15898,18 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Serial number 218 does not have any valid parent or spouse relationship with other voters in house number 1-146A4 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -16168,10 +16120,18 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>0</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 221, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -16234,10 +16194,18 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>0</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 222, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -16522,10 +16490,18 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 226, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -16662,10 +16638,18 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>House number 1-146a on street '1-Nallagoundenpalayam Ward No.1' contains 3 registered voters including serial number 228, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -17024,10 +17008,18 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>House number 1/146a on street '1-Nallagoundenpalayam Ward No.1' contains 2 registered voters including serial number 233, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -17156,10 +17148,18 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 235, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -17222,10 +17222,18 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>House number 1-146a on street '1-Nallagoundenpalayam Ward No.1' contains 3 registered voters including serial number 236, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -17864,10 +17872,18 @@
         </is>
       </c>
       <c r="N246" t="n">
-        <v>0</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 245, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -18300,10 +18316,18 @@
         </is>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>House number 1-146A on street '1-Nallagoundenpalayam Ward No.1' contains 7 registered voters including serial number 251, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -18366,10 +18390,18 @@
         </is>
       </c>
       <c r="N253" t="n">
-        <v>0</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>House number 1-146a on street '1-Nallagoundenpalayam Ward No.1' contains 3 registered voters including serial number 252, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -18432,10 +18464,18 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>House number 1/146a on street '1-Nallagoundenpalayam Ward No.1' contains 2 registered voters including serial number 253, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -19264,10 +19304,18 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Serial number 265 does not have any valid parent or spouse relationship with other voters in house number 1-186 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -19964,10 +20012,18 @@
         </is>
       </c>
       <c r="N276" t="n">
-        <v>0</v>
-      </c>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>Serial number 275 does not have any valid parent or spouse relationship with other voters in house number 1-159 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -20030,10 +20086,18 @@
         </is>
       </c>
       <c r="N277" t="n">
-        <v>0</v>
-      </c>
-      <c r="O277" t="inlineStr"/>
-      <c r="P277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>Serial number 276 does not have any valid parent or spouse relationship with other voters in house number 1-159 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -20096,18 +20160,10 @@
         </is>
       </c>
       <c r="N278" t="n">
-        <v>1</v>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P278" t="inlineStr">
-        <is>
-          <t>Serial number 277 is the only voter listed under house number 1/159 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -20590,10 +20646,18 @@
         </is>
       </c>
       <c r="N285" t="n">
-        <v>0</v>
-      </c>
-      <c r="O285" t="inlineStr"/>
-      <c r="P285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>Serial number 284 does not have any valid parent or spouse relationship with other voters in house number 1/165 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -20656,10 +20720,18 @@
         </is>
       </c>
       <c r="N286" t="n">
-        <v>0</v>
-      </c>
-      <c r="O286" t="inlineStr"/>
-      <c r="P286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>Serial number 285 does not have any valid parent or spouse relationship with other voters in house number 1/165 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -20944,18 +21016,10 @@
         </is>
       </c>
       <c r="N290" t="n">
-        <v>1</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>Serial number 289 is the only voter listed under house number 1-171 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -21224,18 +21288,10 @@
         </is>
       </c>
       <c r="N294" t="n">
-        <v>1</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P294" t="inlineStr">
-        <is>
-          <t>Serial number 293 is the only voter listed under house number 1-172-1 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -21298,18 +21354,10 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>1</v>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>Serial number 294 is the only voter listed under house number 1/172-1 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -21520,10 +21568,18 @@
         </is>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
-      </c>
-      <c r="O298" t="inlineStr"/>
-      <c r="P298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>Serial number 297 does not have any valid parent or spouse relationship with other voters in house number 1-176 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -21586,10 +21642,18 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>0</v>
-      </c>
-      <c r="O299" t="inlineStr"/>
-      <c r="P299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Serial number 298 does not have any valid parent or spouse relationship with other voters in house number 1-176 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -21656,12 +21720,12 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>Serial number 299 is the only voter listed under house number 1/176 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 299 does not have any valid parent or spouse relationship with other voters in house number 1/176 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -21730,12 +21794,12 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Serial number 300 is the only voter listed under house number 1-178 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 300 does not have any valid parent or spouse relationship with other voters in house number 1-178 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -21804,12 +21868,12 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>Serial number 301 is the only voter listed under house number 1/178 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 301 does not have any valid parent or spouse relationship with other voters in house number 1/178 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -21948,10 +22012,18 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>0</v>
-      </c>
-      <c r="O304" t="inlineStr"/>
-      <c r="P304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>Serial number 303 does not have any valid parent or spouse relationship with other voters in house number 1-186 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -22088,18 +22160,10 @@
         </is>
       </c>
       <c r="N306" t="n">
-        <v>1</v>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>Serial number 305 is the only voter listed under house number 1-187 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -22434,10 +22498,18 @@
         </is>
       </c>
       <c r="N311" t="n">
-        <v>0</v>
-      </c>
-      <c r="O311" t="inlineStr"/>
-      <c r="P311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>Serial number 310 does not have any valid parent or spouse relationship with other voters in house number 1-189 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -22500,10 +22572,18 @@
         </is>
       </c>
       <c r="N312" t="n">
-        <v>0</v>
-      </c>
-      <c r="O312" t="inlineStr"/>
-      <c r="P312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>Serial number 311 does not have any valid parent or spouse relationship with other voters in house number 1-189 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -22714,10 +22794,18 @@
         </is>
       </c>
       <c r="N315" t="n">
-        <v>0</v>
-      </c>
-      <c r="O315" t="inlineStr"/>
-      <c r="P315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>Serial number 314 does not have any valid parent or spouse relationship with other voters in house number 1-193 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -22780,10 +22868,18 @@
         </is>
       </c>
       <c r="N316" t="n">
-        <v>0</v>
-      </c>
-      <c r="O316" t="inlineStr"/>
-      <c r="P316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>Serial number 315 does not have any valid parent or spouse relationship with other voters in house number 1-193 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -23340,18 +23436,10 @@
         </is>
       </c>
       <c r="N324" t="n">
-        <v>1</v>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>Serial number 323 is the only voter listed under house number 1-196 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -23414,18 +23502,10 @@
         </is>
       </c>
       <c r="N325" t="n">
-        <v>1</v>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>Serial number 324 is the only voter listed under house number 1/196 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -23640,12 +23720,12 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Serial number 327 is the only voter listed under house number 1/19 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 327 does not have any valid parent or spouse relationship with other voters in house number 1/19 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -24130,18 +24210,10 @@
         </is>
       </c>
       <c r="N335" t="n">
-        <v>1</v>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>Serial number 334 is the only voter listed under house number 1/199 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -24340,12 +24412,12 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Serial number 337 is the only voter listed under house number 1-2024 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 337 does not have any valid parent or spouse relationship with other voters in house number 1-2024 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -24550,18 +24622,10 @@
         </is>
       </c>
       <c r="N341" t="n">
-        <v>1</v>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>Serial number 340 is the only voter listed under house number 1/2024 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -24628,12 +24692,12 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>Serial number 341 is the only voter listed under house number 1-202D on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 341 does not have any valid parent or spouse relationship with other voters in house number 1-202D on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -24702,12 +24766,12 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Serial number 342 is the only voter listed under house number 1/202D on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 342 does not have any valid parent or spouse relationship with other voters in house number 1/202D on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -25286,12 +25350,12 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Serial number 350 is the only voter listed under house number 1-220 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 350 does not have any valid parent or spouse relationship with other voters in house number 1-220 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -25360,12 +25424,12 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Serial number 351 is the only voter listed under house number 1/220 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
+          <t>Serial number 351 does not have any valid parent or spouse relationship with other voters in house number 1/220 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -25834,10 +25898,18 @@
         </is>
       </c>
       <c r="N359" t="n">
-        <v>0</v>
-      </c>
-      <c r="O359" t="inlineStr"/>
-      <c r="P359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>Serial number 358 does not have any valid parent or spouse relationship with other voters in house number 1-238 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -26386,10 +26458,18 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="inlineStr"/>
-      <c r="P367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>Serial number 366 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -26522,12 +26602,12 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>Serial number 368 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 368 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -31014,10 +31094,18 @@
         </is>
       </c>
       <c r="N433" t="n">
-        <v>0</v>
-      </c>
-      <c r="O433" t="inlineStr"/>
-      <c r="P433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>Serial number 432 does not have any valid parent or spouse relationship with other voters in house number 15 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -34368,10 +34456,18 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>0</v>
-      </c>
-      <c r="O482" t="inlineStr"/>
-      <c r="P482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>Serial number 481 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -34434,10 +34530,18 @@
         </is>
       </c>
       <c r="N483" t="n">
-        <v>0</v>
-      </c>
-      <c r="O483" t="inlineStr"/>
-      <c r="P483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>Serial number 482 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -34962,10 +35066,18 @@
         </is>
       </c>
       <c r="N491" t="n">
-        <v>0</v>
-      </c>
-      <c r="O491" t="inlineStr"/>
-      <c r="P491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>Serial number 490 does not have any valid parent or spouse relationship with other voters in house number 46 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -35094,10 +35206,18 @@
         </is>
       </c>
       <c r="N493" t="n">
-        <v>0</v>
-      </c>
-      <c r="O493" t="inlineStr"/>
-      <c r="P493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>Serial number 492 does not have any valid parent or spouse relationship with other voters in house number 46 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -35754,10 +35874,18 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>0</v>
-      </c>
-      <c r="O503" t="inlineStr"/>
-      <c r="P503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Serial number 502 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -35820,10 +35948,18 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
-      </c>
-      <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -36372,10 +36508,18 @@
         </is>
       </c>
       <c r="N512" t="n">
-        <v>0</v>
-      </c>
-      <c r="O512" t="inlineStr"/>
-      <c r="P512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>Serial number 511 does not have any valid parent or spouse relationship with other voters in house number 54 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -36504,10 +36648,18 @@
         </is>
       </c>
       <c r="N514" t="n">
-        <v>0</v>
-      </c>
-      <c r="O514" t="inlineStr"/>
-      <c r="P514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>Serial number 513 does not have any valid parent or spouse relationship with other voters in house number 54 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -37238,10 +37390,18 @@
         </is>
       </c>
       <c r="N525" t="n">
-        <v>0</v>
-      </c>
-      <c r="O525" t="inlineStr"/>
-      <c r="P525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Serial number 524 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -37304,10 +37464,18 @@
         </is>
       </c>
       <c r="N526" t="n">
-        <v>0</v>
-      </c>
-      <c r="O526" t="inlineStr"/>
-      <c r="P526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>Serial number 525 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -37832,10 +38000,18 @@
         </is>
       </c>
       <c r="N534" t="n">
-        <v>0</v>
-      </c>
-      <c r="O534" t="inlineStr"/>
-      <c r="P534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>Serial number 533 does not have any valid parent or spouse relationship with other voters in house number 60 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -38846,10 +39022,18 @@
         </is>
       </c>
       <c r="N549" t="n">
-        <v>0</v>
-      </c>
-      <c r="O549" t="inlineStr"/>
-      <c r="P549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>Serial number 548 does not have any valid parent or spouse relationship with other voters in house number 68 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -40016,10 +40200,18 @@
         </is>
       </c>
       <c r="N566" t="n">
-        <v>0</v>
-      </c>
-      <c r="O566" t="inlineStr"/>
-      <c r="P566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>Serial number 565 does not have any valid parent or spouse relationship with other voters in house number 82 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -41466,10 +41658,18 @@
         </is>
       </c>
       <c r="N587" t="n">
-        <v>0</v>
-      </c>
-      <c r="O587" t="inlineStr"/>
-      <c r="P587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P587" t="inlineStr">
+        <is>
+          <t>Serial number 586 does not have any valid parent or spouse relationship with other voters in house number 98 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -42546,10 +42746,18 @@
         </is>
       </c>
       <c r="N603" t="n">
-        <v>0</v>
-      </c>
-      <c r="O603" t="inlineStr"/>
-      <c r="P603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>Serial number 602 does not have any valid parent or spouse relationship with other voters in house number 107 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -46154,10 +46362,18 @@
         </is>
       </c>
       <c r="N655" t="n">
-        <v>0</v>
-      </c>
-      <c r="O655" t="inlineStr"/>
-      <c r="P655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>Serial number 654 does not have any valid parent or spouse relationship with other voters in house number 139 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -46418,10 +46634,18 @@
         </is>
       </c>
       <c r="N659" t="n">
-        <v>0</v>
-      </c>
-      <c r="O659" t="inlineStr"/>
-      <c r="P659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P659" t="inlineStr">
+        <is>
+          <t>Serial number 658 does not have any valid parent or spouse relationship with other voters in house number 140 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -49278,10 +49502,18 @@
         </is>
       </c>
       <c r="N701" t="n">
-        <v>0</v>
-      </c>
-      <c r="O701" t="inlineStr"/>
-      <c r="P701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P701" t="inlineStr">
+        <is>
+          <t>Serial number 700 does not have any valid parent or spouse relationship with other voters in house number 160 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -51198,10 +51430,18 @@
         </is>
       </c>
       <c r="N729" t="n">
-        <v>0</v>
-      </c>
-      <c r="O729" t="inlineStr"/>
-      <c r="P729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P729" t="inlineStr">
+        <is>
+          <t>Serial number 728 does not have any valid parent or spouse relationship with other voters in house number 187 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -52056,16 +52296,16 @@
         </is>
       </c>
       <c r="N742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P742" t="inlineStr">
         <is>
-          <t>Serial number 741 does not have any valid parent or spouse relationship with other voters in house number 193 on street '1-Nallagoundenpalayam Ward No.1'. | Serial number 741 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 741 does not have any valid parent or spouse relationship with other voters in house number 193 on street '1-Nallagoundenpalayam Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -52476,10 +52716,18 @@
         </is>
       </c>
       <c r="N748" t="n">
-        <v>0</v>
-      </c>
-      <c r="O748" t="inlineStr"/>
-      <c r="P748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P748" t="inlineStr">
+        <is>
+          <t>Serial number 747 does not have any valid parent or spouse relationship with other voters in house number 197 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -53548,10 +53796,18 @@
         </is>
       </c>
       <c r="N764" t="n">
-        <v>0</v>
-      </c>
-      <c r="O764" t="inlineStr"/>
-      <c r="P764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P764" t="inlineStr">
+        <is>
+          <t>Serial number 763 does not have any valid parent or spouse relationship with other voters in house number 202 on street '1-Nallagoundenpalayam Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -54282,16 +54538,16 @@
         </is>
       </c>
       <c r="N775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P775" t="inlineStr">
         <is>
-          <t>Serial number 774 is the only voter listed under house number 243 on street '1-Nallagoundenpalayam Ward No.1' in booth 5. | Serial number 774 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 774 is the only voter listed under house number 243 on street '1-Nallagoundenpalayam Ward No.1' in booth 5.</t>
         </is>
       </c>
     </row>
@@ -54940,16 +55196,16 @@
         </is>
       </c>
       <c r="N784" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P784" t="inlineStr">
         <is>
-          <t>House number - on street '1-Nallagoundenpalayam Ward No.1' contains 11 registered voters including serial number 783, which exceeds the household size threshold. | House number '-' does not contain any numeric digits.</t>
+          <t>Serial number 783 does not have any valid parent or spouse relationship with other voters in house number - on street '1-Nallagoundenpalayam Ward No.1'. | House number - on street '1-Nallagoundenpalayam Ward No.1' contains 11 registered voters including serial number 783, which exceeds the household size threshold. | House number '-' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -55014,16 +55270,16 @@
         </is>
       </c>
       <c r="N785" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P785" t="inlineStr">
         <is>
-          <t>House number - on street '1-Nallagoundenpalayam Ward No.1' contains 11 registered voters including serial number 784, which exceeds the household size threshold. | House number '-' does not contain any numeric digits.</t>
+          <t>Serial number 784 does not have any valid parent or spouse relationship with other voters in house number - on street '1-Nallagoundenpalayam Ward No.1'. | House number - on street '1-Nallagoundenpalayam Ward No.1' contains 11 registered voters including serial number 784, which exceeds the household size threshold. | House number '-' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -55828,16 +56084,16 @@
         </is>
       </c>
       <c r="N796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P796" t="inlineStr">
         <is>
-          <t>Serial number 795 is the only voter listed under house number 1-86 on street '2-Muthugoundenputhur Ward No.2' in booth 5. | Serial number 795 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 795 is the only voter listed under house number 1-86 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
         </is>
       </c>
     </row>
@@ -56758,16 +57014,16 @@
         </is>
       </c>
       <c r="N809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P809" t="inlineStr">
         <is>
-          <t>Serial number 808 is the only voter listed under house number 2-2 on street '2-Muthugoundenputhur Ward No.2' in booth 5. | Serial number 808 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 808 is the only voter listed under house number 2-2 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
         </is>
       </c>
     </row>
@@ -56910,12 +57166,12 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P811" t="inlineStr">
         <is>
-          <t>Serial number 810 is the only voter listed under house number 2-4 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
+          <t>Serial number 810 does not have any valid parent or spouse relationship with other voters in house number 2-4 on street '2-Muthugoundenputhur Ward No.2'.</t>
         </is>
       </c>
     </row>
@@ -56980,18 +57236,10 @@
         </is>
       </c>
       <c r="N812" t="n">
-        <v>1</v>
-      </c>
-      <c r="O812" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P812" t="inlineStr">
-        <is>
-          <t>Serial number 811 is the only voter listed under house number 2/4 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -57190,12 +57438,12 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P815" t="inlineStr">
         <is>
-          <t>Serial number 814 is the only voter listed under house number 2-7 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
+          <t>Serial number 814 does not have any valid parent or spouse relationship with other voters in house number 2-7 on street '2-Muthugoundenputhur Ward No.2'.</t>
         </is>
       </c>
     </row>
@@ -57960,18 +58208,10 @@
         </is>
       </c>
       <c r="N826" t="n">
-        <v>1</v>
-      </c>
-      <c r="O826" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P826" t="inlineStr">
-        <is>
-          <t>Serial number 825 is the only voter listed under house number 2-16 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O826" t="inlineStr"/>
+      <c r="P826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -58034,18 +58274,10 @@
         </is>
       </c>
       <c r="N827" t="n">
-        <v>1</v>
-      </c>
-      <c r="O827" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P827" t="inlineStr">
-        <is>
-          <t>Serial number 826 is the only voter listed under house number 2/16 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O827" t="inlineStr"/>
+      <c r="P827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -58520,18 +58752,10 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>1</v>
-      </c>
-      <c r="O834" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P834" t="inlineStr">
-        <is>
-          <t>Serial number 833 is the only voter listed under house number 2-28 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -58594,18 +58818,10 @@
         </is>
       </c>
       <c r="N835" t="n">
-        <v>1</v>
-      </c>
-      <c r="O835" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P835" t="inlineStr">
-        <is>
-          <t>Serial number 834 is the only voter listed under house number 2/28 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O835" t="inlineStr"/>
+      <c r="P835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -59096,18 +59312,10 @@
         </is>
       </c>
       <c r="N842" t="n">
-        <v>1</v>
-      </c>
-      <c r="O842" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P842" t="inlineStr">
-        <is>
-          <t>Serial number 841 is the only voter listed under house number 2/39 on street '2-Muthugoundenputhur Ward No.2' in booth 5.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O842" t="inlineStr"/>
+      <c r="P842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -59928,10 +60136,18 @@
         </is>
       </c>
       <c r="N854" t="n">
-        <v>0</v>
-      </c>
-      <c r="O854" t="inlineStr"/>
-      <c r="P854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O854" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P854" t="inlineStr">
+        <is>
+          <t>Serial number 853 does not have any valid parent or spouse relationship with other voters in house number 2-52 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -59994,10 +60210,18 @@
         </is>
       </c>
       <c r="N855" t="n">
-        <v>0</v>
-      </c>
-      <c r="O855" t="inlineStr"/>
-      <c r="P855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O855" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P855" t="inlineStr">
+        <is>
+          <t>Serial number 854 does not have any valid parent or spouse relationship with other voters in house number 2-52 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -60060,18 +60284,10 @@
         </is>
       </c>
       <c r="N856" t="n">
-        <v>1</v>
-      </c>
-      <c r="O856" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P856" t="inlineStr">
-        <is>
-          <t>Serial number 855 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O856" t="inlineStr"/>
+      <c r="P856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -61442,10 +61658,18 @@
         </is>
       </c>
       <c r="N875" t="n">
-        <v>0</v>
-      </c>
-      <c r="O875" t="inlineStr"/>
-      <c r="P875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O875" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P875" t="inlineStr">
+        <is>
+          <t>Serial number 874 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -61508,10 +61732,18 @@
         </is>
       </c>
       <c r="N876" t="n">
-        <v>0</v>
-      </c>
-      <c r="O876" t="inlineStr"/>
-      <c r="P876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O876" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P876" t="inlineStr">
+        <is>
+          <t>Serial number 875 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -61648,10 +61880,18 @@
         </is>
       </c>
       <c r="N878" t="n">
-        <v>0</v>
-      </c>
-      <c r="O878" t="inlineStr"/>
-      <c r="P878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O878" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P878" t="inlineStr">
+        <is>
+          <t>Serial number 877 does not have any valid parent or spouse relationship with other voters in house number 18 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -61714,10 +61954,18 @@
         </is>
       </c>
       <c r="N879" t="n">
-        <v>0</v>
-      </c>
-      <c r="O879" t="inlineStr"/>
-      <c r="P879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O879" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P879" t="inlineStr">
+        <is>
+          <t>Serial number 878 does not have any valid parent or spouse relationship with other voters in house number 18 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -62604,10 +62852,18 @@
         </is>
       </c>
       <c r="N892" t="n">
-        <v>0</v>
-      </c>
-      <c r="O892" t="inlineStr"/>
-      <c r="P892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O892" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P892" t="inlineStr">
+        <is>
+          <t>Serial number 891 does not have any valid parent or spouse relationship with other voters in house number 28 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -63914,10 +64170,18 @@
         </is>
       </c>
       <c r="N911" t="n">
-        <v>0</v>
-      </c>
-      <c r="O911" t="inlineStr"/>
-      <c r="P911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O911" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P911" t="inlineStr">
+        <is>
+          <t>Serial number 910 does not have any valid parent or spouse relationship with other voters in house number 40 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
@@ -64326,10 +64590,18 @@
         </is>
       </c>
       <c r="N917" t="n">
-        <v>0</v>
-      </c>
-      <c r="O917" t="inlineStr"/>
-      <c r="P917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O917" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P917" t="inlineStr">
+        <is>
+          <t>Serial number 916 does not have any valid parent or spouse relationship with other voters in house number 46 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -65686,16 +65958,16 @@
         </is>
       </c>
       <c r="N937" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P937" t="inlineStr">
         <is>
-          <t>Serial number 936 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 936 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-Muthugoundenputhur Ward No.2'. | Serial number 936 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -65974,10 +66246,18 @@
         </is>
       </c>
       <c r="N941" t="n">
-        <v>0</v>
-      </c>
-      <c r="O941" t="inlineStr"/>
-      <c r="P941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O941" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P941" t="inlineStr">
+        <is>
+          <t>Serial number 940 does not have any valid parent or spouse relationship with other voters in house number 194 on street '2-Muthugoundenputhur Ward No.2'.</t>
+        </is>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -66476,16 +66756,16 @@
         </is>
       </c>
       <c r="N948" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P948" t="inlineStr">
         <is>
-          <t>Serial number 947 has identical personal and family details as serial number(s) [948] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 947.</t>
+          <t>Serial number 947 has identical personal and family details as serial number(s) [948] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 947. | Serial number 947 does not have any valid parent or spouse relationship with other voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -66550,16 +66830,16 @@
         </is>
       </c>
       <c r="N949" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P949" t="inlineStr">
         <is>
-          <t>Serial number 948 has identical personal and family details as serial number(s) [947] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 948.</t>
+          <t>Serial number 948 has identical personal and family details as serial number(s) [947] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 948. | Serial number 948 does not have any valid parent or spouse relationship with other voters in house number 1/92 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -67348,10 +67628,18 @@
         </is>
       </c>
       <c r="N960" t="n">
-        <v>0</v>
-      </c>
-      <c r="O960" t="inlineStr"/>
-      <c r="P960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O960" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P960" t="inlineStr">
+        <is>
+          <t>Serial number 959 does not have any valid parent or spouse relationship with other voters in house number 1/115 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -67414,10 +67702,18 @@
         </is>
       </c>
       <c r="N961" t="n">
-        <v>0</v>
-      </c>
-      <c r="O961" t="inlineStr"/>
-      <c r="P961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O961" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P961" t="inlineStr">
+        <is>
+          <t>Serial number 960 does not have any valid parent or spouse relationship with other voters in house number 1/115 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
@@ -67480,10 +67776,18 @@
         </is>
       </c>
       <c r="N962" t="n">
-        <v>0</v>
-      </c>
-      <c r="O962" t="inlineStr"/>
-      <c r="P962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O962" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P962" t="inlineStr">
+        <is>
+          <t>Serial number 961 does not have any valid parent or spouse relationship with other voters in house number 1-118 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -67546,10 +67850,18 @@
         </is>
       </c>
       <c r="N963" t="n">
-        <v>0</v>
-      </c>
-      <c r="O963" t="inlineStr"/>
-      <c r="P963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O963" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P963" t="inlineStr">
+        <is>
+          <t>Serial number 962 does not have any valid parent or spouse relationship with other voters in house number 1-118 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -67686,16 +67998,16 @@
         </is>
       </c>
       <c r="N965" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P965" t="inlineStr">
         <is>
-          <t>Serial number 964 has identical personal and family details as serial number(s) [965] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 964.</t>
+          <t>Serial number 964 has identical personal and family details as serial number(s) [965] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 964. | Serial number 964 does not have any valid parent or spouse relationship with other voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -67760,16 +68072,16 @@
         </is>
       </c>
       <c r="N966" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P966" t="inlineStr">
         <is>
-          <t>Serial number 965 has identical personal and family details as serial number(s) [964] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 965.</t>
+          <t>Serial number 965 has identical personal and family details as serial number(s) [964] in part(s) ['5'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1' share the same name as serial number 965. | Serial number 965 does not have any valid parent or spouse relationship with other voters in house number 1/130 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
         </is>
       </c>
     </row>
@@ -69390,10 +69702,18 @@
         </is>
       </c>
       <c r="N989" t="n">
-        <v>0</v>
-      </c>
-      <c r="O989" t="inlineStr"/>
-      <c r="P989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O989" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P989" t="inlineStr">
+        <is>
+          <t>Serial number 988 does not have any valid parent or spouse relationship with other voters in house number 1194 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
@@ -69456,10 +69776,18 @@
         </is>
       </c>
       <c r="N990" t="n">
-        <v>0</v>
-      </c>
-      <c r="O990" t="inlineStr"/>
-      <c r="P990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O990" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P990" t="inlineStr">
+        <is>
+          <t>Serial number 989 does not have any valid parent or spouse relationship with other voters in house number 1194 on street '3-Nallagoundenpalayam Arijana Colony Ward No.1'.</t>
+        </is>
+      </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
